--- a/src/test/resources/mprn-mock-data.xlsx
+++ b/src/test/resources/mprn-mock-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E434B0-6FE6-40A5-90DC-C217C3BA4961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F422C07F-36FA-4C09-AED7-049AD4BDD8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BCA2EEE4-69A4-4EEB-9B44-479A1DB419D0}"/>
   </bookViews>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>MPRN: [identifier]</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C76DD43-D4C0-46EB-ABEC-FD967BC3D38B}">
-  <dimension ref="A1:CS359"/>
+  <dimension ref="A1:CS279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2509,329 +2512,253 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="7"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="7"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="7"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="7"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="7"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="7"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="7"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="7"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="7"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="7"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="7"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="7"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="7"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="7"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="7"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="7"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="7"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="7"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="7"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="7"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="7"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="7"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="7"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="7"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="7"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="7"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="7"/>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="7"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="7"/>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="7"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="7"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="7"/>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="7"/>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="7"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="7"/>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="7"/>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="7"/>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="7"/>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="7"/>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="7"/>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="7"/>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="7"/>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="7"/>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="7"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="7"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="7"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="7"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="7"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="7"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="7"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="7"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="7"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="7"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="7"/>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="7"/>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="7"/>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="7"/>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="7"/>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="7"/>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="7"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="7"/>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="7"/>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="7"/>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="7"/>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="7"/>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="7"/>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="7"/>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="7"/>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="7"/>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="7"/>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="7"/>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="7"/>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="7"/>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="7"/>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="7"/>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="7"/>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="7"/>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="7"/>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="7"/>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="7"/>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="R44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="7"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="7"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="7"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="7"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="7"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="7"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
